--- a/Sonia_IndiaLab_English_20200625 (2).xlsx
+++ b/Sonia_IndiaLab_English_20200625 (2).xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B95B9CDB-B981-4E82-A1A9-A9564A2B56E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="アプリ配置 (必須)" sheetId="3" r:id="rId1"/>
@@ -26,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1227" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1347" uniqueCount="356">
   <si>
     <t>ビックカメラ</t>
     <phoneticPr fontId="1"/>
@@ -1685,12 +1691,101 @@
     <t>Implemented missing tables and sp what they
 provided. But Need functional knowledge for move furthermore</t>
   </si>
+  <si>
+    <t>Sabeena</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>Working fine.</t>
+  </si>
+  <si>
+    <t>GSS-mo</t>
+  </si>
+  <si>
+    <t>gss8888-PC</t>
+  </si>
+  <si>
+    <t>sqa-sql2k5,sqa-sql2k5</t>
+  </si>
+  <si>
+    <t>best_wrn_new,best_wrn_new_temp</t>
+  </si>
+  <si>
+    <r>
+      <t>Working fine.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>Import Document Need tocheck functionality</t>
+    </r>
+  </si>
+  <si>
+    <t>best_wrn.ini,best_wrn_data2.ini</t>
+  </si>
+  <si>
+    <t>best_wrn.ini,best_wrn_data.ini</t>
+  </si>
+  <si>
+    <t>gss8888-PC,gss8888-PC</t>
+  </si>
+  <si>
+    <t>best_wrn_new,best_wrn_data2</t>
+  </si>
+  <si>
+    <t>Need sp_best_ivc_close_01,sp_best_ivc_close_02</t>
+  </si>
+  <si>
+    <t>Need SP_best_ivc_err_mnt_3,SP_best_ivc_err_mnt_4,SP_best_ivc_err_mnt_5,SP_best_ivc_err_mnt_6</t>
+  </si>
+  <si>
+    <t>best_wrn_new,best_wrn_data2_temp</t>
+  </si>
+  <si>
+    <r>
+      <t>Working fine.-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>grapecity date issue commented 1 line.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Working Fine</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>.Import Document Need tocheck functionality</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="12">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -1770,6 +1865,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF00B050"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -1879,7 +1982,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1982,25 +2085,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
@@ -2010,6 +2113,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2072,7 +2181,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2104,9 +2213,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2138,6 +2265,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2313,7 +2458,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2327,7 +2472,7 @@
       <selection pane="bottomRight" activeCell="C88" sqref="C88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.25" bestFit="1" customWidth="1"/>
@@ -2335,7 +2480,7 @@
     <col min="4" max="4" width="27.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
         <v>6</v>
@@ -2347,7 +2492,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="33" t="s">
         <v>0</v>
       </c>
@@ -2361,7 +2506,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="33"/>
       <c r="B3" s="33" t="s">
         <v>14</v>
@@ -2373,7 +2518,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="33"/>
       <c r="B4" s="33"/>
       <c r="C4" s="33"/>
@@ -2381,7 +2526,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="33"/>
       <c r="B5" s="33" t="s">
         <v>9</v>
@@ -2393,7 +2538,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="33"/>
       <c r="B6" s="33"/>
       <c r="C6" s="33"/>
@@ -2401,7 +2546,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="33"/>
       <c r="B7" s="1" t="s">
         <v>12</v>
@@ -2413,7 +2558,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="33"/>
       <c r="B8" s="3" t="s">
         <v>118</v>
@@ -2425,7 +2570,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="33"/>
       <c r="B9" s="3" t="s">
         <v>119</v>
@@ -2437,7 +2582,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="33"/>
       <c r="B10" s="3" t="s">
         <v>120</v>
@@ -2449,7 +2594,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="33"/>
       <c r="B11" s="3" t="s">
         <v>121</v>
@@ -2461,7 +2606,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="33"/>
       <c r="B12" s="1" t="s">
         <v>122</v>
@@ -2473,7 +2618,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="33" t="s">
         <v>1</v>
       </c>
@@ -2487,7 +2632,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="33"/>
       <c r="B14" s="1" t="s">
         <v>47</v>
@@ -2499,7 +2644,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="33"/>
       <c r="B15" s="1" t="s">
         <v>51</v>
@@ -2511,7 +2656,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="33"/>
       <c r="B16" s="1" t="s">
         <v>53</v>
@@ -2523,7 +2668,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="33"/>
       <c r="B17" s="1" t="s">
         <v>66</v>
@@ -2535,7 +2680,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="33"/>
       <c r="B18" s="1" t="s">
         <v>16</v>
@@ -2547,7 +2692,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="33"/>
       <c r="B19" s="1" t="s">
         <v>62</v>
@@ -2559,7 +2704,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="33"/>
       <c r="B20" s="1" t="s">
         <v>18</v>
@@ -2571,7 +2716,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="33"/>
       <c r="B21" s="3" t="s">
         <v>55</v>
@@ -2583,7 +2728,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="33"/>
       <c r="B22" s="1" t="s">
         <v>57</v>
@@ -2595,7 +2740,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" s="33"/>
       <c r="B23" s="1" t="s">
         <v>59</v>
@@ -2607,7 +2752,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" s="33"/>
       <c r="B24" s="1" t="s">
         <v>70</v>
@@ -2619,7 +2764,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" s="33"/>
       <c r="B25" s="1" t="s">
         <v>43</v>
@@ -2631,7 +2776,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="33"/>
       <c r="B26" s="1" t="s">
         <v>84</v>
@@ -2643,7 +2788,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" s="33"/>
       <c r="B27" s="1" t="s">
         <v>80</v>
@@ -2655,7 +2800,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" s="33"/>
       <c r="B28" s="1" t="s">
         <v>82</v>
@@ -2667,7 +2812,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" s="33"/>
       <c r="B29" s="1" t="s">
         <v>88</v>
@@ -2679,7 +2824,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" s="33"/>
       <c r="B30" s="1" t="s">
         <v>72</v>
@@ -2691,7 +2836,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" s="33"/>
       <c r="B31" s="1" t="s">
         <v>74</v>
@@ -2703,7 +2848,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" s="33"/>
       <c r="B32" s="1" t="s">
         <v>76</v>
@@ -2715,7 +2860,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" s="33"/>
       <c r="B33" s="1" t="s">
         <v>78</v>
@@ -2727,7 +2872,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" s="33"/>
       <c r="B34" s="1" t="s">
         <v>69</v>
@@ -2739,7 +2884,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" s="33"/>
       <c r="B35" s="3" t="s">
         <v>86</v>
@@ -2751,7 +2896,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36" s="33"/>
       <c r="B36" s="3" t="s">
         <v>44</v>
@@ -2763,7 +2908,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37" s="33"/>
       <c r="B37" s="3" t="s">
         <v>44</v>
@@ -2775,7 +2920,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38" s="33"/>
       <c r="B38" s="3" t="s">
         <v>44</v>
@@ -2787,7 +2932,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39" s="33"/>
       <c r="B39" s="3" t="s">
         <v>44</v>
@@ -2799,7 +2944,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40" s="33"/>
       <c r="B40" s="3" t="s">
         <v>44</v>
@@ -2811,7 +2956,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A41" s="33"/>
       <c r="B41" s="3" t="s">
         <v>140</v>
@@ -2823,7 +2968,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42" s="33"/>
       <c r="B42" s="3" t="s">
         <v>108</v>
@@ -2835,7 +2980,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A43" s="33"/>
       <c r="B43" s="3" t="s">
         <v>112</v>
@@ -2847,7 +2992,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A44" s="33"/>
       <c r="B44" s="3" t="s">
         <v>114</v>
@@ -2859,7 +3004,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A45" s="33"/>
       <c r="B45" s="3" t="s">
         <v>122</v>
@@ -2871,7 +3016,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A46" s="33"/>
       <c r="B46" s="3" t="s">
         <v>123</v>
@@ -2883,7 +3028,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A47" s="33"/>
       <c r="B47" s="3" t="s">
         <v>138</v>
@@ -2895,7 +3040,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A48" s="33"/>
       <c r="B48" s="3" t="s">
         <v>138</v>
@@ -2907,7 +3052,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A49" s="33" t="s">
         <v>2</v>
       </c>
@@ -2921,7 +3066,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A50" s="33"/>
       <c r="B50" s="3" t="s">
         <v>8</v>
@@ -2933,7 +3078,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A51" s="33"/>
       <c r="B51" s="3" t="s">
         <v>18</v>
@@ -2945,7 +3090,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A52" s="33"/>
       <c r="B52" s="3" t="s">
         <v>72</v>
@@ -2957,7 +3102,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A53" s="33"/>
       <c r="B53" s="3" t="s">
         <v>74</v>
@@ -2969,7 +3114,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A54" s="33"/>
       <c r="B54" s="3" t="s">
         <v>78</v>
@@ -2981,7 +3126,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A55" s="33"/>
       <c r="B55" s="3" t="s">
         <v>82</v>
@@ -2993,7 +3138,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A56" s="33"/>
       <c r="B56" s="3" t="s">
         <v>86</v>
@@ -3005,7 +3150,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A57" s="33"/>
       <c r="B57" s="3" t="s">
         <v>111</v>
@@ -3017,7 +3162,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A58" s="33"/>
       <c r="B58" s="3" t="s">
         <v>55</v>
@@ -3029,7 +3174,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A59" s="33"/>
       <c r="B59" s="3" t="s">
         <v>129</v>
@@ -3041,7 +3186,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A60" s="33"/>
       <c r="B60" s="3" t="s">
         <v>122</v>
@@ -3053,7 +3198,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A61" s="33" t="s">
         <v>35</v>
       </c>
@@ -3067,7 +3212,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A62" s="33"/>
       <c r="B62" s="3" t="s">
         <v>107</v>
@@ -3079,7 +3224,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A63" s="33"/>
       <c r="B63" s="3" t="s">
         <v>122</v>
@@ -3091,7 +3236,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A64" s="33" t="s">
         <v>36</v>
       </c>
@@ -3105,7 +3250,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A65" s="33"/>
       <c r="B65" s="3" t="s">
         <v>26</v>
@@ -3117,7 +3262,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A66" s="33"/>
       <c r="B66" s="3" t="s">
         <v>122</v>
@@ -3129,7 +3274,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A67" s="33" t="s">
         <v>3</v>
       </c>
@@ -3143,27 +3288,27 @@
         <v>98</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A68" s="33"/>
-      <c r="B68" s="34" t="s">
+      <c r="B68" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="C68" s="34" t="s">
+      <c r="C68" s="36" t="s">
         <v>30</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A69" s="33"/>
-      <c r="B69" s="34"/>
-      <c r="C69" s="34"/>
+      <c r="B69" s="36"/>
+      <c r="C69" s="36"/>
       <c r="D69" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A70" s="33"/>
       <c r="B70" s="3" t="s">
         <v>31</v>
@@ -3175,27 +3320,27 @@
         <v>98</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A71" s="33"/>
-      <c r="B71" s="34" t="s">
+      <c r="B71" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="C71" s="34" t="s">
+      <c r="C71" s="36" t="s">
         <v>32</v>
       </c>
       <c r="D71" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A72" s="33"/>
-      <c r="B72" s="34"/>
-      <c r="C72" s="34"/>
+      <c r="B72" s="36"/>
+      <c r="C72" s="36"/>
       <c r="D72" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A73" s="33"/>
       <c r="B73" s="3" t="s">
         <v>26</v>
@@ -3207,7 +3352,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A74" s="33"/>
       <c r="B74" s="3" t="s">
         <v>122</v>
@@ -3219,7 +3364,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A75" s="33" t="s">
         <v>127</v>
       </c>
@@ -3233,47 +3378,47 @@
         <v>98</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A76" s="33"/>
-      <c r="B76" s="34" t="s">
+      <c r="B76" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="C76" s="34" t="s">
+      <c r="C76" s="36" t="s">
         <v>22</v>
       </c>
       <c r="D76" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A77" s="33"/>
-      <c r="B77" s="34"/>
-      <c r="C77" s="34"/>
+      <c r="B77" s="36"/>
+      <c r="C77" s="36"/>
       <c r="D77" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A78" s="33"/>
-      <c r="B78" s="34" t="s">
+      <c r="B78" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="C78" s="34" t="s">
+      <c r="C78" s="36" t="s">
         <v>24</v>
       </c>
       <c r="D78" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A79" s="33"/>
-      <c r="B79" s="34"/>
-      <c r="C79" s="34"/>
+      <c r="B79" s="36"/>
+      <c r="C79" s="36"/>
       <c r="D79" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A80" s="33"/>
       <c r="B80" s="3" t="s">
         <v>26</v>
@@ -3285,7 +3430,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A81" s="33"/>
       <c r="B81" s="3" t="s">
         <v>122</v>
@@ -3297,7 +3442,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A82" s="33" t="s">
         <v>4</v>
       </c>
@@ -3311,27 +3456,27 @@
         <v>98</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A83" s="33"/>
-      <c r="B83" s="35" t="s">
+      <c r="B83" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="C83" s="35" t="s">
+      <c r="C83" s="34" t="s">
         <v>17</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A84" s="33"/>
-      <c r="B84" s="36"/>
-      <c r="C84" s="36"/>
+      <c r="B84" s="35"/>
+      <c r="C84" s="35"/>
       <c r="D84" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A85" s="33"/>
       <c r="B85" s="3" t="s">
         <v>20</v>
@@ -3343,7 +3488,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A86" s="33"/>
       <c r="B86" s="3" t="s">
         <v>122</v>
@@ -3355,13 +3500,27 @@
         <v>102</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C88" s="14" t="s">
         <v>162</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A13:A48"/>
+    <mergeCell ref="A2:A12"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="A49:A60"/>
+    <mergeCell ref="A61:A63"/>
+    <mergeCell ref="A64:A66"/>
+    <mergeCell ref="A67:A74"/>
+    <mergeCell ref="B68:B69"/>
     <mergeCell ref="A82:A86"/>
     <mergeCell ref="B83:B84"/>
     <mergeCell ref="C83:C84"/>
@@ -3370,20 +3529,6 @@
     <mergeCell ref="C78:C79"/>
     <mergeCell ref="A75:A81"/>
     <mergeCell ref="B76:B77"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="A49:A60"/>
-    <mergeCell ref="A61:A63"/>
-    <mergeCell ref="A64:A66"/>
-    <mergeCell ref="A67:A74"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="A13:A48"/>
-    <mergeCell ref="A2:A12"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.47244094488188981" right="0.19685039370078741" top="0.51181102362204722" bottom="0.43307086614173229" header="0.31496062992125984" footer="0.27559055118110237"/>
@@ -3396,7 +3541,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -3410,7 +3555,7 @@
       <selection pane="bottomRight" activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.25" bestFit="1" customWidth="1"/>
@@ -3419,7 +3564,7 @@
     <col min="5" max="5" width="27.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
         <v>167</v>
@@ -3432,7 +3577,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="33" t="s">
         <v>165</v>
       </c>
@@ -3447,9 +3592,9 @@
         <v>134</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="33"/>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="39" t="s">
         <v>171</v>
       </c>
       <c r="C3" s="33" t="s">
@@ -3460,18 +3605,18 @@
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="33"/>
-      <c r="B4" s="38"/>
+      <c r="B4" s="40"/>
       <c r="C4" s="33"/>
       <c r="D4" s="10"/>
       <c r="E4" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="33"/>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="39" t="s">
         <v>172</v>
       </c>
       <c r="C5" s="33" t="s">
@@ -3482,16 +3627,16 @@
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="33"/>
-      <c r="B6" s="38"/>
+      <c r="B6" s="40"/>
       <c r="C6" s="33"/>
       <c r="D6" s="10"/>
       <c r="E6" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="33"/>
       <c r="B7" s="1" t="s">
         <v>177</v>
@@ -3504,7 +3649,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="33"/>
       <c r="B8" s="3" t="s">
         <v>173</v>
@@ -3519,7 +3664,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="33"/>
       <c r="B9" s="3" t="s">
         <v>178</v>
@@ -3534,7 +3679,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="33"/>
       <c r="B10" s="3" t="s">
         <v>179</v>
@@ -3547,7 +3692,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="33"/>
       <c r="B11" s="3" t="s">
         <v>180</v>
@@ -3560,7 +3705,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="33"/>
       <c r="B12" s="1" t="s">
         <v>174</v>
@@ -3573,7 +3718,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="33" t="s">
         <v>166</v>
       </c>
@@ -3588,7 +3733,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="33"/>
       <c r="B14" s="1" t="s">
         <v>183</v>
@@ -3601,7 +3746,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" s="33"/>
       <c r="B15" s="1" t="s">
         <v>184</v>
@@ -3614,7 +3759,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" s="33"/>
       <c r="B16" s="1" t="s">
         <v>185</v>
@@ -3627,7 +3772,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" s="33"/>
       <c r="B17" s="1" t="s">
         <v>186</v>
@@ -3640,7 +3785,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" s="33"/>
       <c r="B18" s="1" t="s">
         <v>187</v>
@@ -3653,7 +3798,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" s="33"/>
       <c r="B19" s="1" t="s">
         <v>188</v>
@@ -3666,7 +3811,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" s="33"/>
       <c r="B20" s="1" t="s">
         <v>189</v>
@@ -3679,7 +3824,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" s="33"/>
       <c r="B21" s="3" t="s">
         <v>190</v>
@@ -3692,7 +3837,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" s="33"/>
       <c r="B22" s="1" t="s">
         <v>191</v>
@@ -3705,7 +3850,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" s="33"/>
       <c r="B23" s="1" t="s">
         <v>192</v>
@@ -3718,7 +3863,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" s="33"/>
       <c r="B24" s="1" t="s">
         <v>193</v>
@@ -3731,7 +3876,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" s="33"/>
       <c r="B25" s="1" t="s">
         <v>194</v>
@@ -3744,7 +3889,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" s="33"/>
       <c r="B26" s="1" t="s">
         <v>195</v>
@@ -3757,7 +3902,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" s="33"/>
       <c r="B27" s="1" t="s">
         <v>196</v>
@@ -3770,7 +3915,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28" s="33"/>
       <c r="B28" s="1" t="s">
         <v>197</v>
@@ -3783,7 +3928,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29" s="33"/>
       <c r="B29" s="1" t="s">
         <v>198</v>
@@ -3796,7 +3941,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30" s="33"/>
       <c r="B30" s="1" t="s">
         <v>199</v>
@@ -3809,7 +3954,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31" s="33"/>
       <c r="B31" s="1" t="s">
         <v>200</v>
@@ -3822,7 +3967,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32" s="33"/>
       <c r="B32" s="1" t="s">
         <v>201</v>
@@ -3835,7 +3980,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" s="33"/>
       <c r="B33" s="1" t="s">
         <v>202</v>
@@ -3848,7 +3993,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" s="33"/>
       <c r="B34" s="1" t="s">
         <v>203</v>
@@ -3861,7 +4006,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" s="33"/>
       <c r="B35" s="3" t="s">
         <v>204</v>
@@ -3874,7 +4019,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" s="33"/>
       <c r="B36" s="3" t="s">
         <v>205</v>
@@ -3887,7 +4032,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" s="33"/>
       <c r="B37" s="3" t="s">
         <v>205</v>
@@ -3900,7 +4045,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" s="33"/>
       <c r="B38" s="3" t="s">
         <v>205</v>
@@ -3913,7 +4058,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39" s="33"/>
       <c r="B39" s="3" t="s">
         <v>205</v>
@@ -3926,7 +4071,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40" s="33"/>
       <c r="B40" s="3" t="s">
         <v>205</v>
@@ -3939,7 +4084,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41" s="33"/>
       <c r="B41" s="3" t="s">
         <v>206</v>
@@ -3952,7 +4097,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A42" s="33"/>
       <c r="B42" s="3" t="s">
         <v>207</v>
@@ -3967,7 +4112,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A43" s="33"/>
       <c r="B43" s="3" t="s">
         <v>225</v>
@@ -3982,7 +4127,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A44" s="33"/>
       <c r="B44" s="3" t="s">
         <v>226</v>
@@ -3997,7 +4142,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A45" s="33"/>
       <c r="B45" s="3" t="s">
         <v>174</v>
@@ -4010,7 +4155,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A46" s="33"/>
       <c r="B46" s="3" t="s">
         <v>208</v>
@@ -4023,7 +4168,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A47" s="33"/>
       <c r="B47" s="3" t="s">
         <v>209</v>
@@ -4036,7 +4181,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A48" s="33"/>
       <c r="B48" s="3" t="s">
         <v>209</v>
@@ -4049,7 +4194,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A49" s="33" t="s">
         <v>175</v>
       </c>
@@ -4064,7 +4209,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A50" s="33"/>
       <c r="B50" s="3" t="s">
         <v>211</v>
@@ -4077,7 +4222,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A51" s="33"/>
       <c r="B51" s="3" t="s">
         <v>189</v>
@@ -4090,7 +4235,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A52" s="33"/>
       <c r="B52" s="3" t="s">
         <v>199</v>
@@ -4103,7 +4248,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A53" s="33"/>
       <c r="B53" s="3" t="s">
         <v>212</v>
@@ -4116,7 +4261,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A54" s="33"/>
       <c r="B54" s="3" t="s">
         <v>202</v>
@@ -4129,7 +4274,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A55" s="33"/>
       <c r="B55" s="3" t="s">
         <v>197</v>
@@ -4142,7 +4287,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A56" s="33"/>
       <c r="B56" s="3" t="s">
         <v>204</v>
@@ -4155,7 +4300,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A57" s="33"/>
       <c r="B57" s="3" t="s">
         <v>213</v>
@@ -4170,7 +4315,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A58" s="33"/>
       <c r="B58" s="3" t="s">
         <v>190</v>
@@ -4183,7 +4328,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A59" s="33"/>
       <c r="B59" s="3" t="s">
         <v>214</v>
@@ -4198,7 +4343,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A60" s="33"/>
       <c r="B60" s="3" t="s">
         <v>174</v>
@@ -4211,7 +4356,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A61" s="33" t="s">
         <v>176</v>
       </c>
@@ -4226,7 +4371,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A62" s="33"/>
       <c r="B62" s="3" t="s">
         <v>216</v>
@@ -4239,7 +4384,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A63" s="33"/>
       <c r="B63" s="3" t="s">
         <v>174</v>
@@ -4252,7 +4397,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A64" s="33" t="s">
         <v>168</v>
       </c>
@@ -4267,7 +4412,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A65" s="33"/>
       <c r="B65" s="3" t="s">
         <v>215</v>
@@ -4280,7 +4425,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A66" s="33"/>
       <c r="B66" s="3" t="s">
         <v>174</v>
@@ -4293,7 +4438,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A67" s="33" t="s">
         <v>169</v>
       </c>
@@ -4308,12 +4453,12 @@
         <v>98</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A68" s="33"/>
-      <c r="B68" s="39" t="s">
+      <c r="B68" s="37" t="s">
         <v>217</v>
       </c>
-      <c r="C68" s="34" t="s">
+      <c r="C68" s="36" t="s">
         <v>30</v>
       </c>
       <c r="D68" s="13"/>
@@ -4321,16 +4466,16 @@
         <v>98</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A69" s="33"/>
-      <c r="B69" s="40"/>
-      <c r="C69" s="34"/>
+      <c r="B69" s="38"/>
+      <c r="C69" s="36"/>
       <c r="D69" s="13"/>
       <c r="E69" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A70" s="33"/>
       <c r="B70" s="3" t="s">
         <v>220</v>
@@ -4343,12 +4488,12 @@
         <v>98</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A71" s="33"/>
-      <c r="B71" s="34" t="s">
+      <c r="B71" s="36" t="s">
         <v>219</v>
       </c>
-      <c r="C71" s="34" t="s">
+      <c r="C71" s="36" t="s">
         <v>32</v>
       </c>
       <c r="D71" s="13"/>
@@ -4356,16 +4501,16 @@
         <v>98</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A72" s="33"/>
-      <c r="B72" s="34"/>
-      <c r="C72" s="34"/>
+      <c r="B72" s="36"/>
+      <c r="C72" s="36"/>
       <c r="D72" s="13"/>
       <c r="E72" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A73" s="33"/>
       <c r="B73" s="3" t="s">
         <v>215</v>
@@ -4378,7 +4523,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A74" s="33"/>
       <c r="B74" s="3" t="s">
         <v>174</v>
@@ -4391,7 +4536,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A75" s="33" t="s">
         <v>106</v>
       </c>
@@ -4406,12 +4551,12 @@
         <v>98</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A76" s="33"/>
-      <c r="B76" s="39" t="s">
+      <c r="B76" s="37" t="s">
         <v>217</v>
       </c>
-      <c r="C76" s="34" t="s">
+      <c r="C76" s="36" t="s">
         <v>22</v>
       </c>
       <c r="D76" s="13"/>
@@ -4419,21 +4564,21 @@
         <v>98</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A77" s="33"/>
-      <c r="B77" s="40"/>
-      <c r="C77" s="34"/>
+      <c r="B77" s="38"/>
+      <c r="C77" s="36"/>
       <c r="D77" s="13"/>
       <c r="E77" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A78" s="33"/>
-      <c r="B78" s="34" t="s">
+      <c r="B78" s="36" t="s">
         <v>219</v>
       </c>
-      <c r="C78" s="34" t="s">
+      <c r="C78" s="36" t="s">
         <v>24</v>
       </c>
       <c r="D78" s="13"/>
@@ -4441,16 +4586,16 @@
         <v>98</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A79" s="33"/>
-      <c r="B79" s="34"/>
-      <c r="C79" s="34"/>
+      <c r="B79" s="36"/>
+      <c r="C79" s="36"/>
       <c r="D79" s="13"/>
       <c r="E79" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A80" s="33"/>
       <c r="B80" s="3" t="s">
         <v>215</v>
@@ -4463,7 +4608,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A81" s="33"/>
       <c r="B81" s="3" t="s">
         <v>174</v>
@@ -4476,7 +4621,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A82" s="33" t="s">
         <v>104</v>
       </c>
@@ -4491,12 +4636,12 @@
         <v>98</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A83" s="33"/>
-      <c r="B83" s="35" t="s">
+      <c r="B83" s="34" t="s">
         <v>189</v>
       </c>
-      <c r="C83" s="35" t="s">
+      <c r="C83" s="34" t="s">
         <v>17</v>
       </c>
       <c r="D83" s="11"/>
@@ -4504,16 +4649,16 @@
         <v>98</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A84" s="33"/>
-      <c r="B84" s="36"/>
-      <c r="C84" s="36"/>
+      <c r="B84" s="35"/>
+      <c r="C84" s="35"/>
       <c r="D84" s="12"/>
       <c r="E84" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A85" s="33"/>
       <c r="B85" s="3" t="s">
         <v>218</v>
@@ -4526,7 +4671,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A86" s="33"/>
       <c r="B86" s="3" t="s">
         <v>174</v>
@@ -4539,29 +4684,35 @@
         <v>102</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C88" s="14" t="s">
         <v>170</v>
       </c>
       <c r="D88" s="14"/>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A90" s="20" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
         <v>278</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A13:A48"/>
+    <mergeCell ref="A2:A12"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
     <mergeCell ref="A82:A86"/>
     <mergeCell ref="B83:B84"/>
     <mergeCell ref="C83:C84"/>
@@ -4578,12 +4729,6 @@
     <mergeCell ref="C76:C77"/>
     <mergeCell ref="B78:B79"/>
     <mergeCell ref="C78:C79"/>
-    <mergeCell ref="A13:A48"/>
-    <mergeCell ref="A2:A12"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
   </mergeCells>
   <pageMargins left="0.47244094488188981" right="0.19685039370078741" top="0.51181102362204722" bottom="0.43307086614173229" header="0.31496062992125984" footer="0.27559055118110237"/>
   <pageSetup paperSize="9" scale="71" orientation="portrait" r:id="rId1"/>
@@ -4595,14 +4740,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="14.125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="49" style="4" bestFit="1" customWidth="1"/>
@@ -4610,12 +4755,12 @@
     <col min="4" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="6"/>
       <c r="B3" s="6" t="s">
         <v>145</v>
@@ -4624,7 +4769,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="41" t="s">
         <v>147</v>
       </c>
@@ -4635,7 +4780,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="41"/>
       <c r="B5" s="7" t="s">
         <v>149</v>
@@ -4644,7 +4789,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="41"/>
       <c r="B6" s="7" t="s">
         <v>150</v>
@@ -4653,7 +4798,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="78.75">
+    <row r="7" spans="1:3" ht="78.75" x14ac:dyDescent="0.15">
       <c r="A7" s="41"/>
       <c r="B7" s="7" t="s">
         <v>151</v>
@@ -4662,7 +4807,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="7" t="s">
         <v>153</v>
       </c>
@@ -4671,7 +4816,7 @@
       </c>
       <c r="C8" s="7"/>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="7" t="s">
         <v>155</v>
       </c>
@@ -4682,7 +4827,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="7" t="s">
         <v>157</v>
       </c>
@@ -4693,7 +4838,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="7" t="s">
         <v>159</v>
       </c>
@@ -4715,14 +4860,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:VMV142"/>
   <sheetViews>
     <sheetView topLeftCell="F67" workbookViewId="0">
       <selection activeCell="I72" sqref="I72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.25" bestFit="1" customWidth="1"/>
@@ -4735,7 +4880,7 @@
     <col min="9" max="9" width="50.625" style="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15232">
+    <row r="1" spans="1:15232" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
         <v>167</v>
@@ -4760,7 +4905,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="2" spans="1:15232" ht="27">
+    <row r="2" spans="1:15232" ht="27" x14ac:dyDescent="0.15">
       <c r="A2" s="33" t="s">
         <v>165</v>
       </c>
@@ -4783,7 +4928,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="3" spans="1:15232" ht="54">
+    <row r="3" spans="1:15232" ht="54" x14ac:dyDescent="0.15">
       <c r="A3" s="33"/>
       <c r="B3" s="21" t="s">
         <v>171</v>
@@ -4804,7 +4949,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="4" spans="1:15232">
+    <row r="4" spans="1:15232" x14ac:dyDescent="0.15">
       <c r="A4" s="33"/>
       <c r="B4" s="21"/>
       <c r="C4" s="21"/>
@@ -4817,7 +4962,7 @@
       <c r="H4" s="21"/>
       <c r="I4" s="27"/>
     </row>
-    <row r="5" spans="1:15232">
+    <row r="5" spans="1:15232" x14ac:dyDescent="0.15">
       <c r="A5" s="33"/>
       <c r="B5" s="21" t="s">
         <v>172</v>
@@ -4838,7 +4983,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="6" spans="1:15232">
+    <row r="6" spans="1:15232" x14ac:dyDescent="0.15">
       <c r="A6" s="33"/>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
@@ -4851,7 +4996,7 @@
       <c r="H6" s="21"/>
       <c r="I6" s="27"/>
     </row>
-    <row r="7" spans="1:15232">
+    <row r="7" spans="1:15232" x14ac:dyDescent="0.15">
       <c r="A7" s="33"/>
       <c r="B7" s="21" t="s">
         <v>177</v>
@@ -4870,7 +5015,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="8" spans="1:15232" ht="27">
+    <row r="8" spans="1:15232" ht="27" x14ac:dyDescent="0.15">
       <c r="A8" s="33"/>
       <c r="B8" s="21" t="s">
         <v>173</v>
@@ -4889,7 +5034,7 @@
       <c r="H8" s="21"/>
       <c r="I8" s="27"/>
     </row>
-    <row r="9" spans="1:15232">
+    <row r="9" spans="1:15232" x14ac:dyDescent="0.15">
       <c r="A9" s="33"/>
       <c r="B9" s="21" t="s">
         <v>178</v>
@@ -4908,7 +5053,7 @@
       <c r="H9" s="21"/>
       <c r="I9" s="27"/>
     </row>
-    <row r="10" spans="1:15232">
+    <row r="10" spans="1:15232" x14ac:dyDescent="0.15">
       <c r="A10" s="33"/>
       <c r="B10" s="21" t="s">
         <v>179</v>
@@ -4925,7 +5070,7 @@
       <c r="H10" s="21"/>
       <c r="I10" s="27"/>
     </row>
-    <row r="11" spans="1:15232">
+    <row r="11" spans="1:15232" x14ac:dyDescent="0.15">
       <c r="A11" s="33"/>
       <c r="B11" s="21" t="s">
         <v>180</v>
@@ -4942,7 +5087,7 @@
       <c r="H11" s="21"/>
       <c r="I11" s="27"/>
     </row>
-    <row r="12" spans="1:15232">
+    <row r="12" spans="1:15232" x14ac:dyDescent="0.15">
       <c r="A12" s="33"/>
       <c r="B12" s="21" t="s">
         <v>174</v>
@@ -4959,7 +5104,7 @@
       <c r="H12" s="21"/>
       <c r="I12" s="27"/>
     </row>
-    <row r="13" spans="1:15232">
+    <row r="13" spans="1:15232" x14ac:dyDescent="0.15">
       <c r="B13" s="21"/>
       <c r="C13" s="21"/>
       <c r="D13" s="21"/>
@@ -4969,7 +5114,7 @@
       <c r="H13" s="21"/>
       <c r="I13" s="27"/>
     </row>
-    <row r="14" spans="1:15232">
+    <row r="14" spans="1:15232" x14ac:dyDescent="0.15">
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
       <c r="D14" s="21"/>
@@ -4979,7 +5124,7 @@
       <c r="H14" s="21"/>
       <c r="I14" s="27"/>
     </row>
-    <row r="15" spans="1:15232" s="15" customFormat="1">
+    <row r="15" spans="1:15232" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="33" t="s">
         <v>166</v>
       </c>
@@ -20223,7 +20368,7 @@
       <c r="VMU15" s="18"/>
       <c r="VMV15" s="18"/>
     </row>
-    <row r="16" spans="1:15232">
+    <row r="16" spans="1:15232" x14ac:dyDescent="0.15">
       <c r="A16" s="33"/>
       <c r="B16" s="21" t="s">
         <v>183</v>
@@ -20244,7 +20389,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="27">
+    <row r="17" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A17" s="33"/>
       <c r="B17" s="21" t="s">
         <v>184</v>
@@ -20265,7 +20410,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" s="33"/>
       <c r="B18" s="21" t="s">
         <v>185</v>
@@ -20286,7 +20431,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="19" spans="1:9" s="18" customFormat="1">
+    <row r="19" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="33"/>
       <c r="B19" s="21" t="s">
         <v>186</v>
@@ -20305,7 +20450,7 @@
       <c r="H19" s="21"/>
       <c r="I19" s="28"/>
     </row>
-    <row r="20" spans="1:9" s="18" customFormat="1">
+    <row r="20" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="33"/>
       <c r="B20" s="21" t="s">
         <v>187</v>
@@ -20326,7 +20471,7 @@
       </c>
       <c r="I20" s="28"/>
     </row>
-    <row r="21" spans="1:9" s="18" customFormat="1" ht="27">
+    <row r="21" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A21" s="33"/>
       <c r="B21" s="21" t="s">
         <v>188</v>
@@ -20347,7 +20492,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="22" spans="1:9" s="18" customFormat="1" ht="27">
+    <row r="22" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A22" s="33"/>
       <c r="B22" s="21" t="s">
         <v>189</v>
@@ -20368,7 +20513,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="23" spans="1:9" s="18" customFormat="1">
+    <row r="23" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" s="33"/>
       <c r="B23" s="21" t="s">
         <v>190</v>
@@ -20389,7 +20534,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="24" spans="1:9" s="18" customFormat="1" ht="27">
+    <row r="24" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A24" s="33"/>
       <c r="B24" s="21" t="s">
         <v>191</v>
@@ -20410,7 +20555,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="25" spans="1:9" s="18" customFormat="1" ht="27">
+    <row r="25" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A25" s="33"/>
       <c r="B25" s="21" t="s">
         <v>192</v>
@@ -20431,7 +20576,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="26" spans="1:9" s="18" customFormat="1" ht="27">
+    <row r="26" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A26" s="33"/>
       <c r="B26" s="21" t="s">
         <v>193</v>
@@ -20452,7 +20597,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="27" spans="1:9" s="18" customFormat="1" ht="40.5">
+    <row r="27" spans="1:9" s="18" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A27" s="33"/>
       <c r="B27" s="21" t="s">
         <v>194</v>
@@ -20473,7 +20618,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="28" spans="1:9" s="18" customFormat="1">
+    <row r="28" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A28" s="33"/>
       <c r="B28" s="21" t="s">
         <v>195</v>
@@ -20492,7 +20637,7 @@
       <c r="H28" s="21"/>
       <c r="I28" s="28"/>
     </row>
-    <row r="29" spans="1:9" s="18" customFormat="1" ht="27">
+    <row r="29" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A29" s="33"/>
       <c r="B29" s="21" t="s">
         <v>196</v>
@@ -20513,7 +20658,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="30" spans="1:9" s="18" customFormat="1" ht="12.75" customHeight="1">
+    <row r="30" spans="1:9" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="33"/>
       <c r="B30" s="21" t="s">
         <v>197</v>
@@ -20534,7 +20679,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="31" spans="1:9" s="18" customFormat="1" ht="27">
+    <row r="31" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A31" s="33"/>
       <c r="B31" s="21" t="s">
         <v>198</v>
@@ -20555,7 +20700,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="32" spans="1:9" s="18" customFormat="1" ht="40.5">
+    <row r="32" spans="1:9" s="18" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A32" s="33"/>
       <c r="B32" s="21" t="s">
         <v>199</v>
@@ -20576,7 +20721,7 @@
       </c>
       <c r="I32" s="28"/>
     </row>
-    <row r="33" spans="1:9" s="18" customFormat="1" ht="40.5">
+    <row r="33" spans="1:9" s="18" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A33" s="33"/>
       <c r="B33" s="21" t="s">
         <v>200</v>
@@ -20597,7 +20742,7 @@
       </c>
       <c r="I33" s="28"/>
     </row>
-    <row r="34" spans="1:9" s="18" customFormat="1" ht="40.5">
+    <row r="34" spans="1:9" s="18" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A34" s="33"/>
       <c r="B34" s="21" t="s">
         <v>201</v>
@@ -20618,7 +20763,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="35" spans="1:9" s="18" customFormat="1" ht="40.5">
+    <row r="35" spans="1:9" s="18" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A35" s="33"/>
       <c r="B35" s="21" t="s">
         <v>202</v>
@@ -20639,7 +20784,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="36" spans="1:9" s="18" customFormat="1" ht="27">
+    <row r="36" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A36" s="33"/>
       <c r="B36" s="21" t="s">
         <v>203</v>
@@ -20660,7 +20805,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="37" spans="1:9" s="18" customFormat="1" ht="40.5">
+    <row r="37" spans="1:9" s="18" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A37" s="33"/>
       <c r="B37" s="21" t="s">
         <v>204</v>
@@ -20681,7 +20826,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="38" spans="1:9" s="18" customFormat="1" ht="27">
+    <row r="38" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A38" s="33"/>
       <c r="B38" s="21" t="s">
         <v>205</v>
@@ -20704,7 +20849,7 @@
       </c>
       <c r="I38" s="28"/>
     </row>
-    <row r="39" spans="1:9" s="18" customFormat="1" ht="27">
+    <row r="39" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A39" s="33"/>
       <c r="B39" s="21" t="s">
         <v>205</v>
@@ -20727,7 +20872,7 @@
       </c>
       <c r="I39" s="28"/>
     </row>
-    <row r="40" spans="1:9" s="18" customFormat="1" ht="27">
+    <row r="40" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A40" s="33"/>
       <c r="B40" s="21" t="s">
         <v>205</v>
@@ -20750,7 +20895,7 @@
       </c>
       <c r="I40" s="28"/>
     </row>
-    <row r="41" spans="1:9" s="18" customFormat="1" ht="27">
+    <row r="41" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A41" s="33"/>
       <c r="B41" s="21" t="s">
         <v>205</v>
@@ -20773,7 +20918,7 @@
       </c>
       <c r="I41" s="28"/>
     </row>
-    <row r="42" spans="1:9" s="18" customFormat="1" ht="27">
+    <row r="42" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A42" s="33"/>
       <c r="B42" s="21" t="s">
         <v>205</v>
@@ -20796,7 +20941,7 @@
       </c>
       <c r="I42" s="28"/>
     </row>
-    <row r="43" spans="1:9" s="18" customFormat="1" ht="27">
+    <row r="43" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A43" s="33"/>
       <c r="B43" s="21" t="s">
         <v>206</v>
@@ -20817,7 +20962,7 @@
       </c>
       <c r="I43" s="28"/>
     </row>
-    <row r="44" spans="1:9" s="18" customFormat="1">
+    <row r="44" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A44" s="33"/>
       <c r="B44" s="21" t="s">
         <v>207</v>
@@ -20836,7 +20981,7 @@
       <c r="H44" s="21"/>
       <c r="I44" s="28"/>
     </row>
-    <row r="45" spans="1:9" s="18" customFormat="1">
+    <row r="45" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A45" s="33"/>
       <c r="B45" s="21" t="s">
         <v>225</v>
@@ -20855,7 +21000,7 @@
       <c r="H45" s="21"/>
       <c r="I45" s="28"/>
     </row>
-    <row r="46" spans="1:9" s="18" customFormat="1" ht="27">
+    <row r="46" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A46" s="33"/>
       <c r="B46" s="21" t="s">
         <v>226</v>
@@ -20874,7 +21019,7 @@
       <c r="H46" s="21"/>
       <c r="I46" s="28"/>
     </row>
-    <row r="47" spans="1:9" s="18" customFormat="1">
+    <row r="47" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A47" s="33"/>
       <c r="B47" s="21" t="s">
         <v>174</v>
@@ -20891,7 +21036,7 @@
       <c r="H47" s="21"/>
       <c r="I47" s="28"/>
     </row>
-    <row r="48" spans="1:9" s="18" customFormat="1">
+    <row r="48" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A48" s="33"/>
       <c r="B48" s="21" t="s">
         <v>208</v>
@@ -20908,7 +21053,7 @@
       <c r="H48" s="21"/>
       <c r="I48" s="28"/>
     </row>
-    <row r="49" spans="1:9" s="18" customFormat="1">
+    <row r="49" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A49" s="33"/>
       <c r="B49" s="21" t="s">
         <v>209</v>
@@ -20925,7 +21070,7 @@
       <c r="H49" s="21"/>
       <c r="I49" s="28"/>
     </row>
-    <row r="50" spans="1:9" s="18" customFormat="1">
+    <row r="50" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A50" s="33"/>
       <c r="B50" s="21" t="s">
         <v>209</v>
@@ -20942,7 +21087,7 @@
       <c r="H50" s="21"/>
       <c r="I50" s="28"/>
     </row>
-    <row r="51" spans="1:9" s="18" customFormat="1">
+    <row r="51" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A51"/>
       <c r="B51" s="21"/>
       <c r="C51" s="21"/>
@@ -20953,7 +21098,7 @@
       <c r="H51" s="21"/>
       <c r="I51" s="28"/>
     </row>
-    <row r="52" spans="1:9" s="18" customFormat="1">
+    <row r="52" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A52"/>
       <c r="B52" s="21"/>
       <c r="C52" s="21"/>
@@ -20964,7 +21109,7 @@
       <c r="H52" s="21"/>
       <c r="I52" s="28"/>
     </row>
-    <row r="53" spans="1:9" s="18" customFormat="1">
+    <row r="53" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A53" s="33" t="s">
         <v>175</v>
       </c>
@@ -20983,7 +21128,7 @@
       <c r="H53" s="21"/>
       <c r="I53" s="28"/>
     </row>
-    <row r="54" spans="1:9" s="18" customFormat="1">
+    <row r="54" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A54" s="33"/>
       <c r="B54" s="21" t="s">
         <v>211</v>
@@ -21000,7 +21145,7 @@
       <c r="H54" s="21"/>
       <c r="I54" s="28"/>
     </row>
-    <row r="55" spans="1:9" s="18" customFormat="1" ht="27">
+    <row r="55" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A55" s="33"/>
       <c r="B55" s="21" t="s">
         <v>189</v>
@@ -21021,7 +21166,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="56" spans="1:9" s="18" customFormat="1">
+    <row r="56" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A56" s="33"/>
       <c r="B56" s="21" t="s">
         <v>199</v>
@@ -21038,7 +21183,7 @@
       <c r="H56" s="21"/>
       <c r="I56" s="28"/>
     </row>
-    <row r="57" spans="1:9" s="18" customFormat="1">
+    <row r="57" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A57" s="33"/>
       <c r="B57" s="21" t="s">
         <v>212</v>
@@ -21055,7 +21200,7 @@
       <c r="H57" s="21"/>
       <c r="I57" s="28"/>
     </row>
-    <row r="58" spans="1:9" s="18" customFormat="1">
+    <row r="58" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A58" s="33"/>
       <c r="B58" s="21" t="s">
         <v>202</v>
@@ -21072,7 +21217,7 @@
       <c r="H58" s="21"/>
       <c r="I58" s="28"/>
     </row>
-    <row r="59" spans="1:9" s="18" customFormat="1">
+    <row r="59" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A59" s="33"/>
       <c r="B59" s="21" t="s">
         <v>197</v>
@@ -21089,7 +21234,7 @@
       <c r="H59" s="21"/>
       <c r="I59" s="28"/>
     </row>
-    <row r="60" spans="1:9" s="18" customFormat="1">
+    <row r="60" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A60" s="33"/>
       <c r="B60" s="21" t="s">
         <v>204</v>
@@ -21106,7 +21251,7 @@
       <c r="H60" s="21"/>
       <c r="I60" s="28"/>
     </row>
-    <row r="61" spans="1:9" s="18" customFormat="1">
+    <row r="61" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A61" s="33"/>
       <c r="B61" s="21" t="s">
         <v>213</v>
@@ -21125,7 +21270,7 @@
       <c r="H61" s="21"/>
       <c r="I61" s="28"/>
     </row>
-    <row r="62" spans="1:9" s="18" customFormat="1">
+    <row r="62" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A62" s="33"/>
       <c r="B62" s="21" t="s">
         <v>190</v>
@@ -21142,7 +21287,7 @@
       <c r="H62" s="21"/>
       <c r="I62" s="28"/>
     </row>
-    <row r="63" spans="1:9" s="18" customFormat="1">
+    <row r="63" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A63" s="33"/>
       <c r="B63" s="21" t="s">
         <v>214</v>
@@ -21161,7 +21306,7 @@
       <c r="H63" s="21"/>
       <c r="I63" s="28"/>
     </row>
-    <row r="64" spans="1:9" s="18" customFormat="1">
+    <row r="64" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A64" s="33"/>
       <c r="B64" s="21" t="s">
         <v>174</v>
@@ -21178,7 +21323,7 @@
       <c r="H64" s="21"/>
       <c r="I64" s="28"/>
     </row>
-    <row r="65" spans="1:9" s="18" customFormat="1">
+    <row r="65" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A65"/>
       <c r="B65" s="21"/>
       <c r="C65" s="21"/>
@@ -21189,7 +21334,7 @@
       <c r="H65" s="21"/>
       <c r="I65" s="28"/>
     </row>
-    <row r="66" spans="1:9" s="18" customFormat="1">
+    <row r="66" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A66"/>
       <c r="B66" s="21"/>
       <c r="C66" s="21"/>
@@ -21200,7 +21345,7 @@
       <c r="H66" s="21"/>
       <c r="I66" s="28"/>
     </row>
-    <row r="67" spans="1:9" s="18" customFormat="1" ht="27">
+    <row r="67" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A67" s="42" t="s">
         <v>176</v>
       </c>
@@ -21223,7 +21368,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="68" spans="1:9" s="18" customFormat="1" ht="27">
+    <row r="68" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A68" s="42"/>
       <c r="B68" s="21" t="s">
         <v>216</v>
@@ -21244,7 +21389,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="69" spans="1:9" s="18" customFormat="1">
+    <row r="69" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A69" s="42"/>
       <c r="B69" s="21" t="s">
         <v>174</v>
@@ -21261,7 +21406,7 @@
       <c r="H69" s="21"/>
       <c r="I69" s="28"/>
     </row>
-    <row r="70" spans="1:9" s="18" customFormat="1">
+    <row r="70" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A70"/>
       <c r="B70" s="21"/>
       <c r="C70" s="21"/>
@@ -21272,7 +21417,7 @@
       <c r="H70" s="21"/>
       <c r="I70" s="28"/>
     </row>
-    <row r="71" spans="1:9" s="18" customFormat="1">
+    <row r="71" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A71"/>
       <c r="B71" s="21"/>
       <c r="C71" s="21"/>
@@ -21283,7 +21428,7 @@
       <c r="H71" s="21"/>
       <c r="I71" s="28"/>
     </row>
-    <row r="72" spans="1:9" s="18" customFormat="1" ht="40.5">
+    <row r="72" spans="1:9" s="18" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A72" s="42" t="s">
         <v>168</v>
       </c>
@@ -21306,7 +21451,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="73" spans="1:9" s="18" customFormat="1" ht="27">
+    <row r="73" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A73" s="42"/>
       <c r="B73" s="21" t="s">
         <v>215</v>
@@ -21327,7 +21472,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="74" spans="1:9" s="18" customFormat="1">
+    <row r="74" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A74" s="42"/>
       <c r="B74" s="21" t="s">
         <v>174</v>
@@ -21344,7 +21489,7 @@
       <c r="H74" s="21"/>
       <c r="I74" s="28"/>
     </row>
-    <row r="75" spans="1:9" s="18" customFormat="1">
+    <row r="75" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A75"/>
       <c r="B75" s="21"/>
       <c r="C75" s="21"/>
@@ -21355,7 +21500,7 @@
       <c r="H75" s="21"/>
       <c r="I75" s="28"/>
     </row>
-    <row r="76" spans="1:9" s="18" customFormat="1">
+    <row r="76" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A76"/>
       <c r="B76" s="21"/>
       <c r="C76" s="21"/>
@@ -21366,7 +21511,7 @@
       <c r="H76" s="21"/>
       <c r="I76" s="28"/>
     </row>
-    <row r="77" spans="1:9" s="18" customFormat="1" ht="40.5">
+    <row r="77" spans="1:9" s="18" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A77" s="33" t="s">
         <v>169</v>
       </c>
@@ -21389,7 +21534,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="78" spans="1:9" s="18" customFormat="1" ht="27">
+    <row r="78" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A78" s="33"/>
       <c r="B78" s="21" t="s">
         <v>217</v>
@@ -21410,7 +21555,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="79" spans="1:9" s="18" customFormat="1">
+    <row r="79" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A79" s="33"/>
       <c r="B79" s="21"/>
       <c r="C79" s="21"/>
@@ -21423,7 +21568,7 @@
       <c r="H79" s="21"/>
       <c r="I79" s="28"/>
     </row>
-    <row r="80" spans="1:9" s="18" customFormat="1">
+    <row r="80" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A80" s="33"/>
       <c r="B80" s="21" t="s">
         <v>220</v>
@@ -21444,7 +21589,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="81" spans="1:9" s="18" customFormat="1">
+    <row r="81" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A81" s="33"/>
       <c r="B81" s="21" t="s">
         <v>219</v>
@@ -21465,7 +21610,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="82" spans="1:9" s="18" customFormat="1">
+    <row r="82" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A82" s="33"/>
       <c r="B82" s="21"/>
       <c r="C82" s="21"/>
@@ -21478,7 +21623,7 @@
       <c r="H82" s="21"/>
       <c r="I82" s="28"/>
     </row>
-    <row r="83" spans="1:9" s="18" customFormat="1" ht="27">
+    <row r="83" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A83" s="33"/>
       <c r="B83" s="21" t="s">
         <v>215</v>
@@ -21499,7 +21644,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="84" spans="1:9" s="18" customFormat="1">
+    <row r="84" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A84" s="33"/>
       <c r="B84" s="21" t="s">
         <v>174</v>
@@ -21516,7 +21661,7 @@
       <c r="H84" s="21"/>
       <c r="I84" s="28"/>
     </row>
-    <row r="85" spans="1:9" s="18" customFormat="1">
+    <row r="85" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A85"/>
       <c r="B85" s="21"/>
       <c r="C85" s="21"/>
@@ -21527,7 +21672,7 @@
       <c r="H85" s="21"/>
       <c r="I85" s="28"/>
     </row>
-    <row r="86" spans="1:9" s="18" customFormat="1">
+    <row r="86" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A86"/>
       <c r="B86" s="21"/>
       <c r="C86" s="21"/>
@@ -21538,7 +21683,7 @@
       <c r="H86" s="21"/>
       <c r="I86" s="28"/>
     </row>
-    <row r="87" spans="1:9" s="18" customFormat="1" ht="40.5">
+    <row r="87" spans="1:9" s="18" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A87" s="33" t="s">
         <v>106</v>
       </c>
@@ -21561,7 +21706,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="88" spans="1:9" s="18" customFormat="1" ht="27">
+    <row r="88" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A88" s="33"/>
       <c r="B88" s="21" t="s">
         <v>217</v>
@@ -21582,7 +21727,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="89" spans="1:9" s="18" customFormat="1">
+    <row r="89" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A89" s="33"/>
       <c r="B89" s="21"/>
       <c r="C89" s="21"/>
@@ -21595,7 +21740,7 @@
       <c r="H89" s="21"/>
       <c r="I89" s="28"/>
     </row>
-    <row r="90" spans="1:9" s="18" customFormat="1" ht="27">
+    <row r="90" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A90" s="33"/>
       <c r="B90" s="21" t="s">
         <v>219</v>
@@ -21616,7 +21761,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="91" spans="1:9" s="18" customFormat="1">
+    <row r="91" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A91" s="33"/>
       <c r="B91" s="21"/>
       <c r="C91" s="21"/>
@@ -21629,7 +21774,7 @@
       <c r="H91" s="21"/>
       <c r="I91" s="28"/>
     </row>
-    <row r="92" spans="1:9" s="18" customFormat="1" ht="27">
+    <row r="92" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A92" s="33"/>
       <c r="B92" s="21" t="s">
         <v>215</v>
@@ -21650,7 +21795,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="93" spans="1:9" s="18" customFormat="1">
+    <row r="93" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A93" s="33"/>
       <c r="B93" s="21" t="s">
         <v>174</v>
@@ -21667,7 +21812,7 @@
       <c r="H93" s="21"/>
       <c r="I93" s="28"/>
     </row>
-    <row r="94" spans="1:9" s="18" customFormat="1">
+    <row r="94" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A94"/>
       <c r="B94" s="21"/>
       <c r="C94" s="21"/>
@@ -21678,7 +21823,7 @@
       <c r="H94" s="21"/>
       <c r="I94" s="28"/>
     </row>
-    <row r="95" spans="1:9" s="18" customFormat="1">
+    <row r="95" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A95"/>
       <c r="B95" s="21"/>
       <c r="C95" s="21"/>
@@ -21689,7 +21834,7 @@
       <c r="H95" s="21"/>
       <c r="I95" s="28"/>
     </row>
-    <row r="96" spans="1:9" s="18" customFormat="1">
+    <row r="96" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A96" s="33" t="s">
         <v>104</v>
       </c>
@@ -21712,7 +21857,7 @@
       </c>
       <c r="I96" s="28"/>
     </row>
-    <row r="97" spans="1:9" s="18" customFormat="1" ht="27">
+    <row r="97" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A97" s="33"/>
       <c r="B97" s="21" t="s">
         <v>189</v>
@@ -21733,7 +21878,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="98" spans="1:9" s="18" customFormat="1">
+    <row r="98" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A98" s="33"/>
       <c r="B98" s="21"/>
       <c r="C98" s="21"/>
@@ -21746,7 +21891,7 @@
       <c r="H98" s="21"/>
       <c r="I98" s="28"/>
     </row>
-    <row r="99" spans="1:9" s="18" customFormat="1" ht="27">
+    <row r="99" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A99" s="33"/>
       <c r="B99" s="21" t="s">
         <v>218</v>
@@ -21767,7 +21912,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="100" spans="1:9" s="18" customFormat="1">
+    <row r="100" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A100" s="33"/>
       <c r="B100" s="21" t="s">
         <v>174</v>
@@ -21784,7 +21929,7 @@
       <c r="H100" s="21"/>
       <c r="I100" s="28"/>
     </row>
-    <row r="101" spans="1:9" s="18" customFormat="1">
+    <row r="101" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A101"/>
       <c r="B101" s="21"/>
       <c r="C101" s="21"/>
@@ -21795,7 +21940,7 @@
       <c r="H101" s="21"/>
       <c r="I101" s="28"/>
     </row>
-    <row r="102" spans="1:9" s="18" customFormat="1">
+    <row r="102" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A102"/>
       <c r="B102" s="21"/>
       <c r="C102" s="21"/>
@@ -21806,7 +21951,7 @@
       <c r="H102" s="21"/>
       <c r="I102" s="28"/>
     </row>
-    <row r="103" spans="1:9" s="18" customFormat="1">
+    <row r="103" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A103"/>
       <c r="B103" s="21"/>
       <c r="C103" s="21"/>
@@ -21817,7 +21962,7 @@
       <c r="H103" s="21"/>
       <c r="I103" s="28"/>
     </row>
-    <row r="104" spans="1:9" s="18" customFormat="1">
+    <row r="104" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A104"/>
       <c r="B104" s="21"/>
       <c r="C104" s="21"/>
@@ -21828,7 +21973,7 @@
       <c r="H104" s="21"/>
       <c r="I104" s="28"/>
     </row>
-    <row r="105" spans="1:9" s="18" customFormat="1">
+    <row r="105" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A105"/>
       <c r="B105" s="21"/>
       <c r="C105" s="21"/>
@@ -21839,7 +21984,7 @@
       <c r="H105" s="21"/>
       <c r="I105" s="28"/>
     </row>
-    <row r="106" spans="1:9" s="18" customFormat="1">
+    <row r="106" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B106" s="19"/>
       <c r="C106" s="19"/>
       <c r="D106"/>
@@ -21848,7 +21993,7 @@
       <c r="G106"/>
       <c r="I106" s="24"/>
     </row>
-    <row r="107" spans="1:9" s="18" customFormat="1">
+    <row r="107" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B107"/>
       <c r="C107"/>
       <c r="D107"/>
@@ -21857,7 +22002,7 @@
       <c r="G107"/>
       <c r="I107" s="24"/>
     </row>
-    <row r="108" spans="1:9" s="18" customFormat="1">
+    <row r="108" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B108"/>
       <c r="C108"/>
       <c r="D108"/>
@@ -21866,7 +22011,7 @@
       <c r="G108"/>
       <c r="I108" s="24"/>
     </row>
-    <row r="109" spans="1:9" s="18" customFormat="1">
+    <row r="109" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A109"/>
       <c r="B109"/>
       <c r="C109"/>
@@ -21876,7 +22021,7 @@
       <c r="G109"/>
       <c r="I109" s="24"/>
     </row>
-    <row r="110" spans="1:9" s="18" customFormat="1">
+    <row r="110" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A110"/>
       <c r="B110"/>
       <c r="C110"/>
@@ -21886,7 +22031,7 @@
       <c r="G110"/>
       <c r="I110" s="24"/>
     </row>
-    <row r="111" spans="1:9" s="18" customFormat="1">
+    <row r="111" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A111"/>
       <c r="B111"/>
       <c r="C111"/>
@@ -21896,7 +22041,7 @@
       <c r="G111"/>
       <c r="I111" s="24"/>
     </row>
-    <row r="112" spans="1:9" s="18" customFormat="1">
+    <row r="112" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A112"/>
       <c r="B112"/>
       <c r="C112"/>
@@ -21906,7 +22051,7 @@
       <c r="G112"/>
       <c r="I112" s="24"/>
     </row>
-    <row r="113" spans="1:9" s="18" customFormat="1">
+    <row r="113" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A113"/>
       <c r="B113"/>
       <c r="C113"/>
@@ -21916,7 +22061,7 @@
       <c r="G113"/>
       <c r="I113" s="24"/>
     </row>
-    <row r="114" spans="1:9" s="18" customFormat="1">
+    <row r="114" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A114"/>
       <c r="B114"/>
       <c r="C114"/>
@@ -21926,7 +22071,7 @@
       <c r="G114"/>
       <c r="I114" s="24"/>
     </row>
-    <row r="115" spans="1:9" s="18" customFormat="1">
+    <row r="115" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A115"/>
       <c r="B115"/>
       <c r="C115"/>
@@ -21936,7 +22081,7 @@
       <c r="G115"/>
       <c r="I115" s="24"/>
     </row>
-    <row r="116" spans="1:9" s="18" customFormat="1">
+    <row r="116" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A116"/>
       <c r="B116"/>
       <c r="C116"/>
@@ -21946,7 +22091,7 @@
       <c r="G116"/>
       <c r="I116" s="24"/>
     </row>
-    <row r="117" spans="1:9" s="18" customFormat="1">
+    <row r="117" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A117"/>
       <c r="B117"/>
       <c r="C117"/>
@@ -21956,7 +22101,7 @@
       <c r="G117"/>
       <c r="I117" s="24"/>
     </row>
-    <row r="118" spans="1:9" s="18" customFormat="1">
+    <row r="118" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A118"/>
       <c r="B118"/>
       <c r="C118"/>
@@ -21966,7 +22111,7 @@
       <c r="G118"/>
       <c r="I118" s="24"/>
     </row>
-    <row r="119" spans="1:9" s="18" customFormat="1">
+    <row r="119" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A119"/>
       <c r="B119"/>
       <c r="C119"/>
@@ -21976,7 +22121,7 @@
       <c r="G119"/>
       <c r="I119" s="24"/>
     </row>
-    <row r="120" spans="1:9" s="18" customFormat="1">
+    <row r="120" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A120"/>
       <c r="B120"/>
       <c r="C120"/>
@@ -21986,7 +22131,7 @@
       <c r="G120"/>
       <c r="I120" s="24"/>
     </row>
-    <row r="121" spans="1:9" s="18" customFormat="1">
+    <row r="121" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A121"/>
       <c r="B121"/>
       <c r="C121"/>
@@ -21996,7 +22141,7 @@
       <c r="G121"/>
       <c r="I121" s="24"/>
     </row>
-    <row r="122" spans="1:9" s="18" customFormat="1">
+    <row r="122" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A122"/>
       <c r="B122"/>
       <c r="C122"/>
@@ -22006,7 +22151,7 @@
       <c r="G122"/>
       <c r="I122" s="24"/>
     </row>
-    <row r="123" spans="1:9" s="18" customFormat="1">
+    <row r="123" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A123"/>
       <c r="B123"/>
       <c r="C123"/>
@@ -22016,7 +22161,7 @@
       <c r="G123"/>
       <c r="I123" s="24"/>
     </row>
-    <row r="124" spans="1:9" s="18" customFormat="1">
+    <row r="124" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A124"/>
       <c r="B124"/>
       <c r="C124"/>
@@ -22026,7 +22171,7 @@
       <c r="G124"/>
       <c r="I124" s="24"/>
     </row>
-    <row r="125" spans="1:9" s="18" customFormat="1">
+    <row r="125" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A125"/>
       <c r="B125"/>
       <c r="C125"/>
@@ -22036,7 +22181,7 @@
       <c r="G125"/>
       <c r="I125" s="24"/>
     </row>
-    <row r="126" spans="1:9" s="18" customFormat="1">
+    <row r="126" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A126"/>
       <c r="B126"/>
       <c r="C126"/>
@@ -22046,7 +22191,7 @@
       <c r="G126"/>
       <c r="I126" s="24"/>
     </row>
-    <row r="127" spans="1:9" s="18" customFormat="1">
+    <row r="127" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A127"/>
       <c r="B127"/>
       <c r="C127"/>
@@ -22056,7 +22201,7 @@
       <c r="G127"/>
       <c r="I127" s="24"/>
     </row>
-    <row r="128" spans="1:9" s="18" customFormat="1">
+    <row r="128" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A128"/>
       <c r="B128"/>
       <c r="C128"/>
@@ -22066,7 +22211,7 @@
       <c r="G128"/>
       <c r="I128" s="24"/>
     </row>
-    <row r="129" spans="1:9" s="18" customFormat="1">
+    <row r="129" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A129"/>
       <c r="B129"/>
       <c r="C129"/>
@@ -22076,7 +22221,7 @@
       <c r="G129"/>
       <c r="I129" s="24"/>
     </row>
-    <row r="130" spans="1:9" s="18" customFormat="1">
+    <row r="130" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A130"/>
       <c r="B130"/>
       <c r="C130"/>
@@ -22086,7 +22231,7 @@
       <c r="G130"/>
       <c r="I130" s="24"/>
     </row>
-    <row r="131" spans="1:9" s="18" customFormat="1">
+    <row r="131" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A131"/>
       <c r="B131"/>
       <c r="C131"/>
@@ -22096,7 +22241,7 @@
       <c r="G131"/>
       <c r="I131" s="24"/>
     </row>
-    <row r="132" spans="1:9" s="18" customFormat="1">
+    <row r="132" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A132"/>
       <c r="B132"/>
       <c r="C132"/>
@@ -22106,7 +22251,7 @@
       <c r="G132"/>
       <c r="I132" s="24"/>
     </row>
-    <row r="133" spans="1:9" s="18" customFormat="1">
+    <row r="133" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A133"/>
       <c r="B133"/>
       <c r="C133"/>
@@ -22116,7 +22261,7 @@
       <c r="G133"/>
       <c r="I133" s="24"/>
     </row>
-    <row r="134" spans="1:9" s="18" customFormat="1">
+    <row r="134" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A134"/>
       <c r="B134"/>
       <c r="C134"/>
@@ -22126,7 +22271,7 @@
       <c r="G134"/>
       <c r="I134" s="24"/>
     </row>
-    <row r="135" spans="1:9" s="18" customFormat="1">
+    <row r="135" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A135"/>
       <c r="B135"/>
       <c r="C135"/>
@@ -22136,7 +22281,7 @@
       <c r="G135"/>
       <c r="I135" s="24"/>
     </row>
-    <row r="136" spans="1:9" s="18" customFormat="1">
+    <row r="136" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A136"/>
       <c r="B136"/>
       <c r="C136"/>
@@ -22146,7 +22291,7 @@
       <c r="G136"/>
       <c r="I136" s="24"/>
     </row>
-    <row r="137" spans="1:9" s="18" customFormat="1">
+    <row r="137" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A137"/>
       <c r="B137"/>
       <c r="C137"/>
@@ -22156,7 +22301,7 @@
       <c r="G137"/>
       <c r="I137" s="24"/>
     </row>
-    <row r="138" spans="1:9" s="18" customFormat="1">
+    <row r="138" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A138"/>
       <c r="B138"/>
       <c r="C138"/>
@@ -22166,7 +22311,7 @@
       <c r="G138"/>
       <c r="I138" s="24"/>
     </row>
-    <row r="139" spans="1:9" s="18" customFormat="1">
+    <row r="139" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A139"/>
       <c r="B139"/>
       <c r="C139"/>
@@ -22176,7 +22321,7 @@
       <c r="G139"/>
       <c r="I139" s="24"/>
     </row>
-    <row r="140" spans="1:9" s="18" customFormat="1">
+    <row r="140" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A140"/>
       <c r="B140"/>
       <c r="C140"/>
@@ -22186,7 +22331,7 @@
       <c r="G140"/>
       <c r="I140" s="24"/>
     </row>
-    <row r="141" spans="1:9" s="18" customFormat="1">
+    <row r="141" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A141"/>
       <c r="B141"/>
       <c r="C141"/>
@@ -22196,7 +22341,7 @@
       <c r="G141"/>
       <c r="I141" s="24"/>
     </row>
-    <row r="142" spans="1:9" s="18" customFormat="1">
+    <row r="142" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A142"/>
       <c r="B142"/>
       <c r="C142"/>
@@ -22223,27 +22368,27 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C55" workbookViewId="0">
-      <selection activeCell="E69" sqref="E69"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="63.875" customWidth="1"/>
     <col min="3" max="3" width="44.125" customWidth="1"/>
-    <col min="4" max="4" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.75" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="37.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="89.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
         <v>167</v>
@@ -22270,7 +22415,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="33" t="s">
         <v>165</v>
       </c>
@@ -22287,7 +22432,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="33"/>
       <c r="B3" s="21" t="s">
         <v>171</v>
@@ -22302,7 +22447,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="33"/>
       <c r="B4" s="21" t="s">
         <v>172</v>
@@ -22317,7 +22462,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" ht="14.25" customHeight="1">
+    <row r="5" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="33"/>
       <c r="B5" s="21" t="s">
         <v>177</v>
@@ -22332,7 +22477,7 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="33" t="s">
         <v>166</v>
       </c>
@@ -22345,11 +22490,17 @@
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="G6" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="I6" s="44" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="33"/>
       <c r="B7" s="21" t="s">
         <v>183</v>
@@ -22357,14 +22508,26 @@
       <c r="C7" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="D7" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="I7" s="44" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="33"/>
       <c r="B8" s="21" t="s">
         <v>184</v>
@@ -22372,14 +22535,26 @@
       <c r="C8" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="D8" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="I8" s="44" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="33"/>
       <c r="B9" s="21" t="s">
         <v>185</v>
@@ -22387,14 +22562,26 @@
       <c r="C9" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="D9" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="I9" s="44" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="33"/>
       <c r="B10" s="21" t="s">
         <v>186</v>
@@ -22405,11 +22592,17 @@
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="G10" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="I10" s="44" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="33"/>
       <c r="B11" s="21" t="s">
         <v>187</v>
@@ -22417,14 +22610,26 @@
       <c r="C11" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="D11" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="I11" s="44" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="33"/>
       <c r="B12" s="21" t="s">
         <v>188</v>
@@ -22432,14 +22637,26 @@
       <c r="C12" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="D12" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="I12" s="44" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="33"/>
       <c r="B13" s="21" t="s">
         <v>189</v>
@@ -22447,14 +22664,26 @@
       <c r="C13" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="D13" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="I13" s="44" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="33"/>
       <c r="B14" s="21" t="s">
         <v>190</v>
@@ -22462,14 +22691,26 @@
       <c r="C14" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="D14" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="I14" s="44" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="33"/>
       <c r="B15" s="21" t="s">
         <v>191</v>
@@ -22477,14 +22718,26 @@
       <c r="C15" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="D15" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="I15" s="44" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="33"/>
       <c r="B16" s="21" t="s">
         <v>192</v>
@@ -22492,14 +22745,26 @@
       <c r="C16" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-    </row>
-    <row r="17" spans="1:9">
+      <c r="D16" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="I16" s="44" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" s="33"/>
       <c r="B17" s="21" t="s">
         <v>193</v>
@@ -22507,14 +22772,26 @@
       <c r="C17" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="D17" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="I17" s="44" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" s="33"/>
       <c r="B18" s="21" t="s">
         <v>194</v>
@@ -22522,14 +22799,26 @@
       <c r="C18" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="D18" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="I18" s="44" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" s="33"/>
       <c r="B19" s="21" t="s">
         <v>195</v>
@@ -22537,14 +22826,8 @@
       <c r="C19" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-    </row>
-    <row r="20" spans="1:9">
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" s="33"/>
       <c r="B20" s="21" t="s">
         <v>196</v>
@@ -22552,14 +22835,26 @@
       <c r="C20" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-    </row>
-    <row r="21" spans="1:9">
+      <c r="D20" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="I20" s="44" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" s="33"/>
       <c r="B21" s="21" t="s">
         <v>197</v>
@@ -22567,14 +22862,26 @@
       <c r="C21" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-    </row>
-    <row r="22" spans="1:9">
+      <c r="D21" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="I21" s="44" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" s="33"/>
       <c r="B22" s="21" t="s">
         <v>198</v>
@@ -22582,14 +22889,26 @@
       <c r="C22" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-    </row>
-    <row r="23" spans="1:9">
+      <c r="D22" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="I22" s="44" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" s="33"/>
       <c r="B23" s="21" t="s">
         <v>199</v>
@@ -22597,14 +22916,26 @@
       <c r="C23" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-    </row>
-    <row r="24" spans="1:9" ht="40.5">
+      <c r="D23" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="I23" s="45" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A24" s="33"/>
       <c r="B24" s="21" t="s">
         <v>200</v>
@@ -22631,7 +22962,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25" s="33"/>
       <c r="B25" s="21" t="s">
         <v>201</v>
@@ -22639,14 +22970,26 @@
       <c r="C25" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-    </row>
-    <row r="26" spans="1:9">
+      <c r="D25" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="I25" s="45" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26" s="33"/>
       <c r="B26" s="21" t="s">
         <v>202</v>
@@ -22654,14 +22997,26 @@
       <c r="C26" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-    </row>
-    <row r="27" spans="1:9">
+      <c r="D26" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="I26" s="44" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A27" s="33"/>
       <c r="B27" s="21" t="s">
         <v>203</v>
@@ -22669,14 +23024,26 @@
       <c r="C27" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-    </row>
-    <row r="28" spans="1:9" ht="14.25" customHeight="1">
+      <c r="D27" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="I27" s="44" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="33"/>
       <c r="B28" s="21" t="s">
         <v>204</v>
@@ -22684,14 +23051,26 @@
       <c r="C28" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-    </row>
-    <row r="29" spans="1:9">
+      <c r="D28" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="I28" s="44" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A29" s="33"/>
       <c r="B29" s="21" t="s">
         <v>205</v>
@@ -22716,7 +23095,7 @@
       </c>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A30" s="33"/>
       <c r="B30" s="21" t="s">
         <v>205</v>
@@ -22741,7 +23120,7 @@
       </c>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A31" s="33"/>
       <c r="B31" s="21" t="s">
         <v>205</v>
@@ -22766,7 +23145,7 @@
       </c>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A32" s="33"/>
       <c r="B32" s="21" t="s">
         <v>205</v>
@@ -22791,7 +23170,7 @@
       </c>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A33" s="33"/>
       <c r="B33" s="21" t="s">
         <v>205</v>
@@ -22816,7 +23195,7 @@
       </c>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A34" s="33"/>
       <c r="B34" s="21" t="s">
         <v>205</v>
@@ -22841,7 +23220,7 @@
       </c>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A35" s="33"/>
       <c r="B35" s="21" t="s">
         <v>205</v>
@@ -22866,7 +23245,7 @@
       </c>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A36" s="33"/>
       <c r="B36" s="21" t="s">
         <v>205</v>
@@ -22891,7 +23270,7 @@
       </c>
       <c r="I36" s="1"/>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A37" s="33"/>
       <c r="B37" s="21" t="s">
         <v>205</v>
@@ -22916,7 +23295,7 @@
       </c>
       <c r="I37" s="1"/>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A38" s="33"/>
       <c r="B38" s="21" t="s">
         <v>205</v>
@@ -22941,7 +23320,7 @@
       </c>
       <c r="I38" s="1"/>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A39" s="33"/>
       <c r="B39" s="21" t="s">
         <v>205</v>
@@ -22966,7 +23345,7 @@
       </c>
       <c r="I39" s="1"/>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A40" s="33"/>
       <c r="B40" s="21" t="s">
         <v>205</v>
@@ -22991,7 +23370,7 @@
       </c>
       <c r="I40" s="1"/>
     </row>
-    <row r="41" spans="1:9" ht="27">
+    <row r="41" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A41" s="33"/>
       <c r="B41" s="21" t="s">
         <v>206</v>
@@ -23018,7 +23397,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A42" s="33" t="s">
         <v>175</v>
       </c>
@@ -23035,7 +23414,7 @@
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A43" s="33"/>
       <c r="B43" s="21" t="s">
         <v>211</v>
@@ -23050,7 +23429,7 @@
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A44" s="33"/>
       <c r="B44" s="21" t="s">
         <v>189</v>
@@ -23065,7 +23444,7 @@
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A45" s="33"/>
       <c r="B45" s="21" t="s">
         <v>199</v>
@@ -23080,7 +23459,7 @@
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A46" s="33"/>
       <c r="B46" s="21" t="s">
         <v>212</v>
@@ -23095,7 +23474,7 @@
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A47" s="33"/>
       <c r="B47" s="21" t="s">
         <v>202</v>
@@ -23110,7 +23489,7 @@
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A48" s="33"/>
       <c r="B48" s="21" t="s">
         <v>197</v>
@@ -23125,7 +23504,7 @@
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A49" s="33"/>
       <c r="B49" s="21" t="s">
         <v>204</v>
@@ -23140,7 +23519,7 @@
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A50" s="33" t="s">
         <v>176</v>
       </c>
@@ -23169,7 +23548,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A51" s="33"/>
       <c r="B51" s="21" t="s">
         <v>216</v>
@@ -23194,7 +23573,7 @@
       </c>
       <c r="I51" s="1"/>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A52" s="33" t="s">
         <v>168</v>
       </c>
@@ -23223,7 +23602,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A53" s="33"/>
       <c r="B53" s="21" t="s">
         <v>215</v>
@@ -23248,7 +23627,7 @@
       </c>
       <c r="I53" s="1"/>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A54" s="33" t="s">
         <v>169</v>
       </c>
@@ -23267,7 +23646,7 @@
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A55" s="33"/>
       <c r="B55" s="21" t="s">
         <v>217</v>
@@ -23284,7 +23663,7 @@
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A56" s="33"/>
       <c r="B56" s="21" t="s">
         <v>220</v>
@@ -23301,7 +23680,7 @@
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A57" s="33"/>
       <c r="B57" s="21" t="s">
         <v>219</v>
@@ -23318,7 +23697,7 @@
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A58" s="33"/>
       <c r="B58" s="21" t="s">
         <v>215</v>
@@ -23335,7 +23714,7 @@
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
     </row>
-    <row r="59" spans="1:9" ht="27">
+    <row r="59" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A59" s="33" t="s">
         <v>106</v>
       </c>
@@ -23364,7 +23743,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="67.5">
+    <row r="60" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A60" s="33"/>
       <c r="B60" s="21" t="s">
         <v>217</v>
@@ -23391,7 +23770,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A61" s="33"/>
       <c r="B61" s="21" t="s">
         <v>219</v>
@@ -23418,7 +23797,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A62" s="33"/>
       <c r="B62" s="21" t="s">
         <v>215</v>
@@ -23445,7 +23824,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="54">
+    <row r="63" spans="1:9" ht="54" x14ac:dyDescent="0.15">
       <c r="A63" s="33" t="s">
         <v>104</v>
       </c>
@@ -23474,7 +23853,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="27">
+    <row r="64" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A64" s="33"/>
       <c r="B64" s="21" t="s">
         <v>189</v>
@@ -23501,7 +23880,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A65" s="33"/>
       <c r="B65" s="21" t="s">
         <v>218</v>
@@ -23521,7 +23900,7 @@
       <c r="I65" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H65"/>
+  <autoFilter ref="A1:H65" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
   <mergeCells count="8">
     <mergeCell ref="A59:A62"/>
     <mergeCell ref="A63:A65"/>
@@ -23538,21 +23917,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>297</v>
       </c>
@@ -23563,7 +23942,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="29" t="s">
         <v>165</v>
       </c>
@@ -23574,7 +23953,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="43" t="s">
         <v>166</v>
       </c>
@@ -23585,7 +23964,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="43"/>
       <c r="B4" s="21" t="s">
         <v>189</v>
@@ -23594,7 +23973,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>175</v>
       </c>
@@ -23605,7 +23984,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>176</v>
       </c>
@@ -23616,7 +23995,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>297</v>
       </c>
@@ -23627,7 +24006,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="31" t="s">
         <v>166</v>
       </c>
@@ -23638,7 +24017,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="31" t="s">
         <v>104</v>
       </c>
@@ -23649,7 +24028,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
         <v>297</v>
       </c>
@@ -23660,8 +24039,8 @@
         <v>163</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="37" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19" s="39" t="s">
         <v>166</v>
       </c>
       <c r="B19" s="21" t="s">
@@ -23671,8 +24050,8 @@
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="38"/>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A20" s="40"/>
       <c r="B20" s="21" t="s">
         <v>202</v>
       </c>
@@ -23680,7 +24059,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" s="29" t="s">
         <v>168</v>
       </c>
@@ -23691,7 +24070,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" s="29" t="s">
         <v>169</v>
       </c>
@@ -23702,7 +24081,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" s="29" t="s">
         <v>106</v>
       </c>
